--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hc-C5ar1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hc-C5ar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Hc</t>
+  </si>
+  <si>
+    <t>C5ar1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Hc</t>
-  </si>
-  <si>
-    <t>C5ar1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,40 +546,40 @@
         <v>0.099495</v>
       </c>
       <c r="I2">
-        <v>0.5816414219655207</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5816414219655206</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.5288616666666667</v>
+        <v>0.06674100000000001</v>
       </c>
       <c r="N2">
-        <v>1.586585</v>
+        <v>0.200223</v>
       </c>
       <c r="O2">
-        <v>0.002498519794912577</v>
+        <v>0.001121358778383549</v>
       </c>
       <c r="P2">
-        <v>0.002498519794912577</v>
+        <v>0.001121358778383549</v>
       </c>
       <c r="Q2">
-        <v>0.017539697175</v>
+        <v>0.002213465265</v>
       </c>
       <c r="R2">
-        <v>0.157857274575</v>
+        <v>0.019921187385</v>
       </c>
       <c r="S2">
-        <v>0.001453242606321952</v>
+        <v>0.001121358778383549</v>
       </c>
       <c r="T2">
-        <v>0.001453242606321952</v>
+        <v>0.001121358778383549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.099495</v>
       </c>
       <c r="I3">
-        <v>0.5816414219655207</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5816414219655206</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>3.377498</v>
       </c>
       <c r="O3">
-        <v>0.005318810911660981</v>
+        <v>0.0189158439903152</v>
       </c>
       <c r="P3">
-        <v>0.005318810911660981</v>
+        <v>0.01891584399031519</v>
       </c>
       <c r="Q3">
         <v>0.03733824039</v>
@@ -638,10 +638,10 @@
         <v>0.33604416351</v>
       </c>
       <c r="S3">
-        <v>0.003093640741824221</v>
+        <v>0.0189158439903152</v>
       </c>
       <c r="T3">
-        <v>0.00309364074182422</v>
+        <v>0.01891584399031519</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0.099495</v>
       </c>
       <c r="I4">
-        <v>0.5816414219655207</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5816414219655206</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.474785</v>
+        <v>31.745291</v>
       </c>
       <c r="N4">
-        <v>370.424355</v>
+        <v>95.235873</v>
       </c>
       <c r="O4">
-        <v>0.5833362747569298</v>
+        <v>0.5333731999099544</v>
       </c>
       <c r="P4">
-        <v>0.58333627475693</v>
+        <v>0.5333731999099544</v>
       </c>
       <c r="Q4">
-        <v>4.095041244525</v>
+        <v>1.052832576015</v>
       </c>
       <c r="R4">
-        <v>36.855371200725</v>
+        <v>9.475493184134999</v>
       </c>
       <c r="S4">
-        <v>0.3392925403336903</v>
+        <v>0.5333731999099544</v>
       </c>
       <c r="T4">
-        <v>0.3392925403336903</v>
+        <v>0.5333731999099544</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -732,10 +732,10 @@
         <v>0.099495</v>
       </c>
       <c r="I5">
-        <v>0.5816414219655207</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.5816414219655206</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1021626666666667</v>
+        <v>0.07967600000000001</v>
       </c>
       <c r="N5">
-        <v>0.306488</v>
+        <v>0.239028</v>
       </c>
       <c r="O5">
-        <v>0.0004826506836401238</v>
+        <v>0.001338688093173426</v>
       </c>
       <c r="P5">
-        <v>0.0004826506836401238</v>
+        <v>0.001338688093173426</v>
       </c>
       <c r="Q5">
-        <v>0.00338822484</v>
+        <v>0.00264245454</v>
       </c>
       <c r="R5">
-        <v>0.03049402356</v>
+        <v>0.02378209086</v>
       </c>
       <c r="S5">
-        <v>0.0002807296299450723</v>
+        <v>0.001338688093173426</v>
       </c>
       <c r="T5">
-        <v>0.0002807296299450722</v>
+        <v>0.001338688093173426</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,10 +794,10 @@
         <v>0.099495</v>
       </c>
       <c r="I6">
-        <v>0.5816414219655207</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.5816414219655206</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.43835066666666</v>
+        <v>26.500431</v>
       </c>
       <c r="N6">
-        <v>259.315052</v>
+        <v>79.501293</v>
       </c>
       <c r="O6">
-        <v>0.4083637438528563</v>
+        <v>0.4452509092281735</v>
       </c>
       <c r="P6">
-        <v>0.4083637438528564</v>
+        <v>0.4452509092281735</v>
       </c>
       <c r="Q6">
-        <v>2.86672789986</v>
+        <v>0.878886794115</v>
       </c>
       <c r="R6">
-        <v>25.80055109874</v>
+        <v>7.909981147035</v>
       </c>
       <c r="S6">
-        <v>0.237521268653739</v>
+        <v>0.4452509092281735</v>
       </c>
       <c r="T6">
-        <v>0.237521268653739</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.02385466666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.071564</v>
-      </c>
-      <c r="I7">
-        <v>0.4183585780344793</v>
-      </c>
-      <c r="J7">
-        <v>0.4183585780344793</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.5288616666666667</v>
-      </c>
-      <c r="N7">
-        <v>1.586585</v>
-      </c>
-      <c r="O7">
-        <v>0.002498519794912577</v>
-      </c>
-      <c r="P7">
-        <v>0.002498519794912577</v>
-      </c>
-      <c r="Q7">
-        <v>0.01261581877111111</v>
-      </c>
-      <c r="R7">
-        <v>0.11354236894</v>
-      </c>
-      <c r="S7">
-        <v>0.001045277188590625</v>
-      </c>
-      <c r="T7">
-        <v>0.001045277188590625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.02385466666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.071564</v>
-      </c>
-      <c r="I8">
-        <v>0.4183585780344793</v>
-      </c>
-      <c r="J8">
-        <v>0.4183585780344793</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1.125832666666667</v>
-      </c>
-      <c r="N8">
-        <v>3.377498</v>
-      </c>
-      <c r="O8">
-        <v>0.005318810911660981</v>
-      </c>
-      <c r="P8">
-        <v>0.005318810911660981</v>
-      </c>
-      <c r="Q8">
-        <v>0.02685636298577778</v>
-      </c>
-      <c r="R8">
-        <v>0.241707266872</v>
-      </c>
-      <c r="S8">
-        <v>0.002225170169836761</v>
-      </c>
-      <c r="T8">
-        <v>0.00222517016983676</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.02385466666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.071564</v>
-      </c>
-      <c r="I9">
-        <v>0.4183585780344793</v>
-      </c>
-      <c r="J9">
-        <v>0.4183585780344793</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>123.474785</v>
-      </c>
-      <c r="N9">
-        <v>370.424355</v>
-      </c>
-      <c r="O9">
-        <v>0.5833362747569298</v>
-      </c>
-      <c r="P9">
-        <v>0.58333627475693</v>
-      </c>
-      <c r="Q9">
-        <v>2.945449837913333</v>
-      </c>
-      <c r="R9">
-        <v>26.50904854122</v>
-      </c>
-      <c r="S9">
-        <v>0.2440437344232395</v>
-      </c>
-      <c r="T9">
-        <v>0.2440437344232395</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.02385466666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.071564</v>
-      </c>
-      <c r="I10">
-        <v>0.4183585780344793</v>
-      </c>
-      <c r="J10">
-        <v>0.4183585780344793</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.1021626666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.306488</v>
-      </c>
-      <c r="O10">
-        <v>0.0004826506836401238</v>
-      </c>
-      <c r="P10">
-        <v>0.0004826506836401238</v>
-      </c>
-      <c r="Q10">
-        <v>0.002437056359111111</v>
-      </c>
-      <c r="R10">
-        <v>0.021933507232</v>
-      </c>
-      <c r="S10">
-        <v>0.0002019210536950515</v>
-      </c>
-      <c r="T10">
-        <v>0.0002019210536950515</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.02385466666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.071564</v>
-      </c>
-      <c r="I11">
-        <v>0.4183585780344793</v>
-      </c>
-      <c r="J11">
-        <v>0.4183585780344793</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>86.43835066666666</v>
-      </c>
-      <c r="N11">
-        <v>259.315052</v>
-      </c>
-      <c r="O11">
-        <v>0.4083637438528563</v>
-      </c>
-      <c r="P11">
-        <v>0.4083637438528564</v>
-      </c>
-      <c r="Q11">
-        <v>2.061958042369778</v>
-      </c>
-      <c r="R11">
-        <v>18.557622381328</v>
-      </c>
-      <c r="S11">
-        <v>0.1708424751991173</v>
-      </c>
-      <c r="T11">
-        <v>0.1708424751991173</v>
+        <v>0.4452509092281735</v>
       </c>
     </row>
   </sheetData>
